--- a/data_files/ModMap.xlsx
+++ b/data_files/ModMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\PycharmProjects\PrimoFreePatch2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandonliberatore/PycharmProjects/free_modifier_patch/data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2FD90F-22FC-4900-B1A9-24C64C3396A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8274A04C-F7BC-3145-A65E-602B1B18A417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{89F252B2-85DD-42CD-8AA2-7B5A67356BC8}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="18440" windowHeight="18080" activeTab="2" xr2:uid="{89F252B2-85DD-42CD-8AA2-7B5A67356BC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Cheeses" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>NO TOPPINGS</t>
+  </si>
+  <si>
+    <t>GREEN OLIVE SALAD</t>
+  </si>
+  <si>
+    <t>PISTACHIO MORTADELLA</t>
   </si>
 </sst>
 </file>
@@ -699,14 +705,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4204B41B-C6B8-497C-895A-F51157EE993B}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="156" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -714,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -722,7 +730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -730,7 +738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -738,7 +746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -746,7 +754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -754,7 +762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -762,7 +770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -770,7 +778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -778,7 +786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -786,7 +794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -794,7 +802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -813,12 +821,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -826,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -834,7 +842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -842,7 +850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -850,7 +858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -858,7 +866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -866,7 +874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -874,7 +882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -882,7 +890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -890,7 +898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -898,7 +906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -906,7 +914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -914,7 +922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -922,7 +930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -930,7 +938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -938,7 +946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -946,7 +954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -954,7 +962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -962,7 +970,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -970,7 +978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -985,16 +993,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88664D48-5A1F-4BD1-AF7D-8003D7769A18}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1002,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1010,7 +1020,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1018,7 +1028,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1026,7 +1036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1034,7 +1044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1042,7 +1052,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1050,7 +1060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1058,7 +1068,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1066,7 +1076,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1074,7 +1084,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1082,7 +1092,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1090,7 +1100,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1098,7 +1108,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1106,7 +1116,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1114,7 +1124,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1122,7 +1132,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1130,7 +1140,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1138,7 +1148,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1146,7 +1156,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1154,7 +1164,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1162,7 +1172,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1170,7 +1180,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1178,7 +1188,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1186,7 +1196,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1194,7 +1204,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1202,7 +1212,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1210,7 +1220,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1218,12 +1228,20 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1233,16 +1251,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E233CB-ED70-48C2-A664-357700C6F35D}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1250,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1258,7 +1278,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1266,7 +1286,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1274,7 +1294,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1282,7 +1302,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1290,7 +1310,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1298,7 +1318,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1306,7 +1326,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1314,7 +1334,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1322,7 +1342,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1330,7 +1350,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1338,7 +1358,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1346,7 +1366,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1354,7 +1374,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1362,7 +1382,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1370,7 +1390,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1378,7 +1398,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1386,7 +1406,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1394,7 +1414,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1402,7 +1422,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1410,7 +1430,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1418,7 +1438,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1426,7 +1446,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1434,7 +1454,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1442,7 +1462,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1450,12 +1470,20 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
